--- a/backend/database/companyA/fna.xlsx
+++ b/backend/database/companyA/fna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\vscode\python-1\hw_12\ai-chatbot\backend\database\companyA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E94A6-9F6A-4D6D-97EB-EE2337469440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E815F-40A7-414C-B2EA-9B8BB80EFA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{ECBC8941-70F1-462A-AD16-96143897268F}"/>
+    <workbookView xWindow="-21380" yWindow="890" windowWidth="19940" windowHeight="13820" xr2:uid="{ECBC8941-70F1-462A-AD16-96143897268F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,12 +236,201 @@
     <t xml:space="preserve">네, 알겠습니다. 띄어쓰기를 정확히 해서 원하는 그림을 그려달라고 입력해주세요. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>What is Reactor AI?</t>
+  </si>
+  <si>
+    <t>『Reactor AI』 is an artificial intelligence (AI) chatbot automation solution provided by Seincluster.
+It can be easily connected to various platforms such as homepages and Telegram operated by companies or individuals, and provides various functions such as automating customer response, FAQ optimization, and customized strategy suggestions. It also provides strategic insights and increases business efficiency through customer data analysis.
+---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What features does it have?</t>
+  </si>
+  <si>
+    <t>"Reactor AI provides the following various functions:
+- 24-hour AI automatic customer response
+- Automatic provision of optimized answers by analyzing FAQs
+- Integration with various platforms (homepage, KakaoTalk, Telegram, etc.)
+- Personalized information and recommendation services
+- Provision of strategic insights based on customer data analysis
+- Easy chatbot management with just a few clicks
+- 24-hour real-time automatic response regardless of time and place
+---"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where is it mainly used?</t>
+  </si>
+  <si>
+    <t>Reactor AI is used in various environments such as corporate homepages, shopping mall customer centers, messenger platforms such as KakaoTalk and Telegram, as well as education and consulting services, self-employed people, and startups. It can be widely used in all environments that require customer service and work automation regardless of size and industry._x000D_
+_x000D_
+It is especially effectively used in areas where 24-hour customer service is required or frequently asked questions are repeated.</t>
+  </si>
+  <si>
+    <t>What are the effects of introducing Reactor AI?</t>
+  </si>
+  <si>
+    <t>Introducing Reactor AI will significantly increase customer response efficiency, reduce operating costs and labor costs by automating repetitive tasks, and accurately identify customer needs based on data, which will greatly help in establishing marketing and operational strategies.</t>
+  </si>
+  <si>
+    <t>Is installation or setup difficult?</t>
+  </si>
+  <si>
+    <t>It’s not difficult at all. Reactor AI can be easily installed and set up with just a few clicks, without any programming or professional skills. Even beginners can use it right away.</t>
+  </si>
+  <si>
+    <t>How much does it cost?</t>
+  </si>
+  <si>
+    <t>Reactor AI offers various plans depending on the user's environment and requirements. You can get detailed information on rates and plans by leaving an inquiry.</t>
+  </si>
+  <si>
+    <t>What should I do if I encounter a problem while using it?</t>
+  </si>
+  <si>
+    <t>If you encounter any issues while using the product, please contact ReactorAI's customer support center or email us and we will help you resolve the issue quickly.</t>
+  </si>
+  <si>
+    <t>How is data security managed?</t>
+  </si>
+  <si>
+    <t>Reactor AI adheres to strict data security policies, and all data is encrypted and stored safely. Data is continuously protected through a security management system.</t>
+  </si>
+  <si>
+    <t>Can chatbots learn?</t>
+  </si>
+  <si>
+    <t>Yes, you can. Reactor AI analyzes conversation data and automatically learns to provide more sophisticated and personalized answers. The more you use it, the more accurate your answers become.</t>
+  </si>
+  <si>
+    <t>What languages ​​does the AI ​​chatbot support?</t>
+  </si>
+  <si>
+    <t>Reactor AI supports Korean as the default language, and English and multilingual support are also available. If you need additional language support, please contact us separately and we will provide guidance.</t>
+  </si>
+  <si>
+    <t>I would like to try it myself. Can I experience it?</t>
+  </si>
+  <si>
+    <t>Of course. Reactor AI offers a free trial service. You can get detailed information on how to experience it by leaving an inquiry.</t>
+  </si>
+  <si>
+    <t>Is it interoperable with existing systems?</t>
+  </si>
+  <si>
+    <t>Yes, you can. Reactor AI is designed to be easily and quickly integrated with existing CRM, ERP, and various internal systems via API.</t>
+  </si>
+  <si>
+    <t>Is this available to sole proprietors or small businesses?</t>
+  </si>
+  <si>
+    <t>Of course. Reactor AI provides flexible services to suit all business environments regardless of size, from individual business owners to small and medium-sized businesses to large corporations.</t>
+  </si>
+  <si>
+    <t>Does customer satisfaction actually increase after introducing a chatbot?</t>
+  </si>
+  <si>
+    <t>Yes, after introducing the chatbot, customer satisfaction actually increases significantly due to the 24-hour real-time response and accurate information provision. Reducing waiting time and providing accurate responses are key factors in improving satisfaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What data can I get from a chatbot? </t>
+  </si>
+  <si>
+    <t>Reactor AI analyzes data such as frequently asked questions, customer interests, conversation history, and customer responses to provide useful insights for establishing customer tendencies and marketing strategies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">How does it differ from other chatbot solutions? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The biggest differences between Reactor AI and other chatbot solutions are its easy and fast setup, support for various platforms, and the ability to provide personalized responses and strategic insights through data analysis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any monthly usage limits? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usage limits vary depending on the plan you use. You can receive guidance on the optimal plan based on your usage, and you can adjust the plan at any time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I operate it without any knowledge of chatbots? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No problem at all. Reactor AI provides an intuitive management environment and easy-to-use settings menu so that even beginners can easily manage it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any additional costs for updating or managing the chatbot? </t>
+  </si>
+  <si>
+    <t>Basic feature updates are provided free of charge, and separate costs may apply only when additional features or custom development are required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there additional costs if I want to expand to other platforms? </t>
+  </si>
+  <si>
+    <t>Integration and expansion between supported platforms are basically provided free of charge. However, if special customized integration is required, separate inquiries may be required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can it be used as a chatbot for internal employees rather than customer service? </t>
+  </si>
+  <si>
+    <t>Yes, it is possible. Reactor AI can also be widely used as a chatbot for internal work, such as providing internal work manuals, training employees, and automating FAQ responses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any marketing cases using chatbots? </t>
+  </si>
+  <si>
+    <t>There are many real cases where customer engagement has been increased, and customer conversion rates and return visit rates have been improved through personalized information provision and customized marketing strategies through chatbots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which major customers are using Reactor AI? </t>
+  </si>
+  <si>
+    <t>Reactor AI is being used by companies in various fields. For more specific cases, please contact us separately and we will provide detailed information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you also create a picture? </t>
+  </si>
+  <si>
+    <t>Yes, you can create a picture! Tell me the picture you want!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you draw a picture for me? </t>
+  </si>
+  <si>
+    <t>Yes, tell me the picture you want and I will create it for you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you create an image? </t>
+  </si>
+  <si>
+    <t>Of course! Please tell me the details of the image you want.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the name of the AI ​​chatbot? </t>
+  </si>
+  <si>
+    <t>It is Reactor AI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please draw a picture. </t>
+  </si>
+  <si>
+    <t>Yes, I understand. Please input the desired image with exact spacing.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +443,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -280,12 +477,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541964B-C3DC-4CE6-9029-40D3B2B0F722}">
-  <dimension ref="D1:E29"/>
+  <dimension ref="D1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,220 +849,444 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="4:5" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:5" ht="198" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:5" ht="132" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+    <row r="5" spans="4:5" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="132" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
+    <row r="9" spans="4:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" ht="66" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="1" t="s">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
